--- a/data/trdrec_from_trdclient/zxjt_alphabee/11024hao/holding.xlsx
+++ b/data/trdrec_from_trdclient/zxjt_alphabee/11024hao/holding.xlsx
@@ -19,10 +19,10 @@
     <t>业务日期</t>
   </si>
   <si>
-    <t>2020-09-08</t>
-  </si>
-  <si>
-    <t>20200908</t>
+    <t>2020-09-09</t>
+  </si>
+  <si>
+    <t>20200909</t>
   </si>
   <si>
     <t>账户编号</t>
@@ -52,7 +52,7 @@
     <t>总资产</t>
   </si>
   <si>
-    <t>35179809.01</t>
+    <t>35179299.00</t>
   </si>
   <si>
     <t>市场</t>
@@ -85,13 +85,13 @@
     <t>持仓市值</t>
   </si>
   <si>
-    <t>35172620.21</t>
+    <t>35172110.20</t>
   </si>
   <si>
     <t>持仓数量</t>
   </si>
   <si>
-    <t>351684.00</t>
+    <t>351700.00</t>
   </si>
   <si>
     <t>回购融资资产</t>
@@ -109,7 +109,7 @@
     <t>当前价格</t>
   </si>
   <si>
-    <t>100.0120</t>
+    <t>100.0060</t>
   </si>
   <si>
     <t>可用金额</t>
@@ -118,7 +118,7 @@
     <t>买入成本价</t>
   </si>
   <si>
-    <t>99.9272</t>
+    <t>99.9227</t>
   </si>
   <si>
     <t>可取金额</t>
@@ -145,7 +145,7 @@
     <t>实时盈亏</t>
   </si>
   <si>
-    <t>29809.01</t>
+    <t>29299.00</t>
   </si>
   <si>
     <t>浮动盈亏</t>
